--- a/New Лист Microsoft Excel.xlsx
+++ b/New Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Расюкевыич</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>зенько</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -76,8 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:M13"/>
+  <dimension ref="C4:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +400,12 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -421,12 +433,18 @@
       <c r="K5">
         <v>40</v>
       </c>
-      <c r="M5">
-        <f>AVERAGE(D5:K5)</f>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1">
+        <f>AVERAGE(D5:L5)</f>
+        <v>68.111111111111114</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -454,12 +472,18 @@
       <c r="K6">
         <v>50</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M13" si="0">AVERAGE(D6:K6)</f>
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>75</v>
+      </c>
+      <c r="M6" s="1">
+        <f>AVERAGE(D6:L6)</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -487,12 +511,18 @@
       <c r="K7">
         <v>75</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>80.25</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1">
+        <f>AVERAGE(D7:L7)</f>
+        <v>79.111111111111114</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -518,14 +548,20 @@
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>64.75</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1">
+        <f>AVERAGE(D8:L8)</f>
+        <v>67.555555555555557</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -553,12 +589,18 @@
       <c r="K9">
         <v>50</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>75</v>
+      </c>
+      <c r="M9" s="1">
+        <f>AVERAGE(D9:L9)</f>
+        <v>82.555555555555557</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -589,12 +631,15 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <f>AVERAGE(D10:L10)</f>
         <v>85.555555555555557</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -625,12 +670,15 @@
       <c r="L11">
         <v>60</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <f>AVERAGE(D11:L11)</f>
         <v>70.222222222222229</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -658,12 +706,18 @@
       <c r="K12">
         <v>20</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>59.625</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12" s="1">
+        <f>AVERAGE(D12:L12)</f>
+        <v>58.555555555555557</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -691,12 +745,19 @@
       <c r="K13">
         <v>70</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>73.625</v>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13" s="1">
+        <f>AVERAGE(D13:L13)</f>
+        <v>74.888888888888886</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>